--- a/Datas/Defines/__beans__.xlsx
+++ b/Datas/Defines/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\DemoExcels\Datas\Defines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{91020107-62A8-4567-ADE8-4AC1802BB2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E32E321-8F1A-4585-9F51-94BCADC85A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -92,6 +92,72 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>Movement</t>
+  </si>
+  <si>
+    <t>Mov</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>Bld</t>
+  </si>
+  <si>
+    <t>Luck</t>
+  </si>
+  <si>
+    <t>Luk</t>
+  </si>
+  <si>
+    <t>Resistance</t>
+  </si>
+  <si>
+    <t>Res</t>
+  </si>
+  <si>
+    <t>Defence</t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Spd</t>
+  </si>
+  <si>
+    <t>Dexterity</t>
+  </si>
+  <si>
+    <t>Dex</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Mag</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Str</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>HPMax</t>
+  </si>
+  <si>
+    <t>SLG.BasicStats</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
 </sst>
 </file>
@@ -102,14 +168,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -117,14 +183,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -132,14 +198,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -185,7 +251,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -199,6 +265,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
@@ -482,29 +554,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,15 +598,15 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -577,155 +649,292 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="B4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="B13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:13">
+    <row r="4" spans="1:17">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="H4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="H5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="H7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="H8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="H9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="H10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="H11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="H12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="H13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="O15" s="5"/>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="2:11">
+      <c r="O16" s="5"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="2:17">
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="2:11">
+      <c r="O17" s="5"/>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="2:17">
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="2:11">
+      <c r="O18" s="5"/>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="2:17">
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="2:11">
+      <c r="O19" s="5"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="2:17">
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="2:11">
+      <c r="O20" s="5"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="2:17">
       <c r="B21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="2:11">
+      <c r="O21" s="5"/>
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="2:17">
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="2:11">
+      <c r="O22" s="5"/>
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="2:17">
       <c r="B23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="2:11">
+      <c r="O23" s="5"/>
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="2:17">
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:17">
       <c r="B25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:17">
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:17">
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:17">
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:17">
       <c r="B29" s="2"/>
       <c r="H29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:17">
       <c r="H30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:17">
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:17">
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="K32" s="2"/>

--- a/Datas/Defines/__beans__.xlsx
+++ b/Datas/Defines/__beans__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E32E321-8F1A-4585-9F51-94BCADC85A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9371EE43-B577-41E9-9C7C-C1D643E92A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,11 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Claymore - Personal View" guid="{CB89C7C3-9291-4D1D-ABF6-F72D75238F47}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{03E8AAD4-4054-43A1-B504-82AC2A8AAC3D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{BEB32F08-F073-4C54-AB58-82CE415D5183}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{A139AFD5-47BE-4E02-BD03-EC36313C3819}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="李翔 - 个人视图" guid="{086FD590-A994-4456-BE22-C66B2EE54603}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="403" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{A139AFD5-47BE-4E02-BD03-EC36313C3819}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{BEB32F08-F073-4C54-AB58-82CE415D5183}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{03E8AAD4-4054-43A1-B504-82AC2A8AAC3D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Claymore - Personal View" guid="{CB89C7C3-9291-4D1D-ABF6-F72D75238F47}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -92,12 +92,6 @@
   </si>
   <si>
     <t>注释</t>
-  </si>
-  <si>
-    <t>Movement</t>
-  </si>
-  <si>
-    <t>Mov</t>
   </si>
   <si>
     <t>Build</t>
@@ -557,7 +551,7 @@
   <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F13" sqref="F13:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -652,20 +646,20 @@
     <row r="4" spans="1:17">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="H4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
         <v>37</v>
       </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
       <c r="K4" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -676,13 +670,13 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="H5" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -693,13 +687,13 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="H6" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -710,13 +704,13 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="H7" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -727,13 +721,13 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="H8" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -744,13 +738,13 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="H9" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -761,13 +755,13 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="H10" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -778,13 +772,13 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="H11" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -795,13 +789,13 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="H12" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -811,15 +805,8 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="H13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="H13" s="6"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:17">
       <c r="H14" s="2"/>
@@ -1153,13 +1140,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{086FD590-A994-4456-BE22-C66B2EE54603}" topLeftCell="A25">
-      <selection activeCell="F32" sqref="F32"/>
+    <customSheetView guid="{CB89C7C3-9291-4D1D-ABF6-F72D75238F47}">
+      <selection activeCell="K7" sqref="K7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{A139AFD5-47BE-4E02-BD03-EC36313C3819}">
-      <selection activeCell="F21" sqref="F21"/>
+    <customSheetView guid="{03E8AAD4-4054-43A1-B504-82AC2A8AAC3D}" topLeftCell="A40">
+      <selection activeCell="I66" sqref="I66"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -1168,13 +1155,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{03E8AAD4-4054-43A1-B504-82AC2A8AAC3D}" topLeftCell="A40">
-      <selection activeCell="I66" sqref="I66"/>
+    <customSheetView guid="{A139AFD5-47BE-4E02-BD03-EC36313C3819}">
+      <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{CB89C7C3-9291-4D1D-ABF6-F72D75238F47}">
-      <selection activeCell="K7" sqref="K7"/>
+    <customSheetView guid="{086FD590-A994-4456-BE22-C66B2EE54603}" topLeftCell="A25">
+      <selection activeCell="F32" sqref="F32"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>

--- a/Datas/Defines/__beans__.xlsx
+++ b/Datas/Defines/__beans__.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\Defines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeMonoConfigs\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9371EE43-B577-41E9-9C7C-C1D643E92A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D20CE0-D06A-4852-9628-1F6BDB9E6F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="8100" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="李翔 - 个人视图" guid="{086FD590-A994-4456-BE22-C66B2EE54603}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="403" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{A139AFD5-47BE-4E02-BD03-EC36313C3819}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{BEB32F08-F073-4C54-AB58-82CE415D5183}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{03E8AAD4-4054-43A1-B504-82AC2A8AAC3D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="Claymore - Personal View" guid="{CB89C7C3-9291-4D1D-ABF6-F72D75238F47}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{03E8AAD4-4054-43A1-B504-82AC2A8AAC3D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{BEB32F08-F073-4C54-AB58-82CE415D5183}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{A139AFD5-47BE-4E02-BD03-EC36313C3819}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="李翔 - 个人视图" guid="{086FD590-A994-4456-BE22-C66B2EE54603}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="403" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>valueType</t>
   </si>
 </sst>
 </file>
@@ -548,10 +551,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:P13"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -559,18 +562,19 @@
     <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,69 +585,75 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:19">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>36</v>
@@ -652,501 +662,521 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="J4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:19">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="J5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="J6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:19">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="J7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:19">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="J8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:19">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="J9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="M9" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:19">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="J10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="M10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:19">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="J11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:19">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="H12" s="6" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="J12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:19">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="J13" s="6"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
+      <c r="M14" s="2"/>
       <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="O15" s="5"/>
+      <c r="M15" s="2"/>
       <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="O16" s="5"/>
+      <c r="M16" s="2"/>
       <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="2:17">
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="S16" s="5"/>
+    </row>
+    <row r="17" spans="2:19">
+      <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="O17" s="5"/>
+      <c r="M17" s="2"/>
       <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="2:17">
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="2:19">
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="O18" s="5"/>
+      <c r="M18" s="2"/>
       <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="2:17">
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" spans="2:19">
+      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="O19" s="5"/>
+      <c r="M19" s="2"/>
       <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="2:17">
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" spans="2:19">
+      <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="O20" s="5"/>
+      <c r="M20" s="2"/>
       <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="2:17">
+      <c r="S20" s="5"/>
+    </row>
+    <row r="21" spans="2:19">
       <c r="B21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="O21" s="5"/>
+      <c r="M21" s="2"/>
       <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="2:17">
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="2:19">
+      <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="O22" s="5"/>
+      <c r="M22" s="2"/>
       <c r="Q22" s="5"/>
-    </row>
-    <row r="23" spans="2:17">
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="2:19">
       <c r="B23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="O23" s="5"/>
+      <c r="M23" s="2"/>
       <c r="Q23" s="5"/>
-    </row>
-    <row r="24" spans="2:17">
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="S23" s="5"/>
+    </row>
+    <row r="24" spans="2:19">
+      <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="2:17">
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="2:19">
       <c r="B25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="2:17">
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="2:19">
+      <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="2:17">
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="2:19">
+      <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="2:17">
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="2:19">
+      <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="2:17">
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="2:19">
       <c r="B29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="2:17">
-      <c r="H30" s="2"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="2:17">
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="2:19">
+      <c r="J30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="2:19">
+      <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="2:17">
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="2:19">
+      <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="2:11">
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="2:13">
       <c r="B35" s="2"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="3"/>
-      <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="H36" s="4"/>
-      <c r="I36" s="3"/>
-      <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="H37" s="4"/>
-      <c r="I37" s="3"/>
-      <c r="K37" s="4"/>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="H38" s="4"/>
-      <c r="I38" s="3"/>
-      <c r="K38" s="4"/>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="H39" s="4"/>
-      <c r="I39" s="3"/>
-      <c r="K39" s="4"/>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="3"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="J36" s="4"/>
+      <c r="K36" s="3"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="J37" s="4"/>
+      <c r="K37" s="3"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="J38" s="4"/>
+      <c r="K38" s="3"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="J39" s="4"/>
+      <c r="K39" s="3"/>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="H42" s="4"/>
-      <c r="I42" s="3"/>
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="H43" s="4"/>
-      <c r="I43" s="3"/>
-      <c r="K43" s="4"/>
-    </row>
-    <row r="44" spans="2:11">
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="J42" s="4"/>
+      <c r="K42" s="3"/>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="J43" s="4"/>
+      <c r="K43" s="3"/>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="2:13">
       <c r="B44" s="2"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="3"/>
-      <c r="K44" s="4"/>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="H45" s="4"/>
-      <c r="I45" s="3"/>
-      <c r="K45" s="4"/>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="H46" s="4"/>
-      <c r="I46" s="3"/>
-      <c r="K46" s="4"/>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="H47" s="4"/>
-      <c r="I47" s="2"/>
-      <c r="K47" s="4"/>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="H48" s="4"/>
-      <c r="I48" s="3"/>
-      <c r="K48" s="4"/>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="H49" s="4"/>
-      <c r="I49" s="3"/>
-      <c r="K49" s="4"/>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="H50" s="4"/>
-      <c r="I50" s="3"/>
-      <c r="K50" s="4"/>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="H51" s="4"/>
-      <c r="I51" s="3"/>
-      <c r="K51" s="4"/>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="H52" s="4"/>
-      <c r="I52" s="3"/>
-      <c r="K52" s="4"/>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="H53" s="4"/>
-      <c r="I53" s="3"/>
-      <c r="K53" s="4"/>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="H54" s="4"/>
-      <c r="I54" s="3"/>
-      <c r="K54" s="4"/>
-    </row>
-    <row r="55" spans="2:11">
+      <c r="J44" s="4"/>
+      <c r="K44" s="3"/>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="J45" s="4"/>
+      <c r="K45" s="3"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="J46" s="4"/>
+      <c r="K46" s="3"/>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="J47" s="4"/>
+      <c r="K47" s="2"/>
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="J48" s="4"/>
+      <c r="K48" s="3"/>
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="J49" s="4"/>
+      <c r="K49" s="3"/>
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="J50" s="4"/>
+      <c r="K50" s="3"/>
+      <c r="M50" s="4"/>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="J51" s="4"/>
+      <c r="K51" s="3"/>
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="J52" s="4"/>
+      <c r="K52" s="3"/>
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="J53" s="4"/>
+      <c r="K53" s="3"/>
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="J54" s="4"/>
+      <c r="K54" s="3"/>
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="2:13">
       <c r="B55" s="2"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="3"/>
-      <c r="K55" s="4"/>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="H56" s="4"/>
-      <c r="I56" s="3"/>
-      <c r="K56" s="4"/>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="H57" s="4"/>
-      <c r="I57" s="3"/>
-      <c r="K57" s="4"/>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="H58" s="4"/>
-      <c r="I58" s="3"/>
-      <c r="K58" s="4"/>
-    </row>
-    <row r="59" spans="2:11">
+      <c r="J55" s="4"/>
+      <c r="K55" s="3"/>
+      <c r="M55" s="4"/>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="J56" s="4"/>
+      <c r="K56" s="3"/>
+      <c r="M56" s="4"/>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="J57" s="4"/>
+      <c r="K57" s="3"/>
+      <c r="M57" s="4"/>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="J58" s="4"/>
+      <c r="K58" s="3"/>
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="2:13">
       <c r="B59" s="2"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="3"/>
-      <c r="K59" s="4"/>
-    </row>
-    <row r="60" spans="2:11">
-      <c r="H60" s="4"/>
-      <c r="I60" s="3"/>
-      <c r="K60" s="4"/>
-    </row>
-    <row r="61" spans="2:11">
-      <c r="H61" s="4"/>
-      <c r="I61" s="3"/>
-      <c r="K61" s="4"/>
-    </row>
-    <row r="62" spans="2:11">
+      <c r="J59" s="4"/>
+      <c r="K59" s="3"/>
+      <c r="M59" s="4"/>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="J60" s="4"/>
+      <c r="K60" s="3"/>
+      <c r="M60" s="4"/>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="J61" s="4"/>
+      <c r="K61" s="3"/>
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62" spans="2:13">
       <c r="B62" s="2"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="3"/>
-      <c r="K62" s="4"/>
-    </row>
-    <row r="63" spans="2:11">
-      <c r="H63" s="4"/>
-      <c r="I63" s="3"/>
-      <c r="K63" s="4"/>
-    </row>
-    <row r="64" spans="2:11">
-      <c r="H64" s="4"/>
-      <c r="I64" s="3"/>
-      <c r="K64" s="4"/>
-    </row>
-    <row r="65" spans="2:11">
-      <c r="H65" s="4"/>
-      <c r="I65" s="3"/>
-      <c r="K65" s="4"/>
-    </row>
-    <row r="66" spans="2:11">
-      <c r="H66" s="4"/>
-      <c r="I66" s="2"/>
-      <c r="K66" s="4"/>
-    </row>
-    <row r="67" spans="2:11">
-      <c r="H67" s="4"/>
-      <c r="I67" s="3"/>
-      <c r="K67" s="4"/>
-    </row>
-    <row r="68" spans="2:11">
-      <c r="H68" s="4"/>
-      <c r="I68" s="3"/>
-      <c r="K68" s="4"/>
-    </row>
-    <row r="69" spans="2:11">
-      <c r="H69" s="4"/>
-      <c r="I69" s="2"/>
-      <c r="K69" s="4"/>
-    </row>
-    <row r="70" spans="2:11">
-      <c r="H70" s="4"/>
-      <c r="I70" s="2"/>
-      <c r="K70" s="4"/>
-    </row>
-    <row r="71" spans="2:11">
+      <c r="J62" s="4"/>
+      <c r="K62" s="3"/>
+      <c r="M62" s="4"/>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="J63" s="4"/>
+      <c r="K63" s="3"/>
+      <c r="M63" s="4"/>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="J64" s="4"/>
+      <c r="K64" s="3"/>
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="2:13">
+      <c r="J65" s="4"/>
+      <c r="K65" s="3"/>
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="2:13">
+      <c r="J66" s="4"/>
+      <c r="K66" s="2"/>
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="2:13">
+      <c r="J67" s="4"/>
+      <c r="K67" s="3"/>
+      <c r="M67" s="4"/>
+    </row>
+    <row r="68" spans="2:13">
+      <c r="J68" s="4"/>
+      <c r="K68" s="3"/>
+      <c r="M68" s="4"/>
+    </row>
+    <row r="69" spans="2:13">
+      <c r="J69" s="4"/>
+      <c r="K69" s="2"/>
+      <c r="M69" s="4"/>
+    </row>
+    <row r="70" spans="2:13">
+      <c r="J70" s="4"/>
+      <c r="K70" s="2"/>
+      <c r="M70" s="4"/>
+    </row>
+    <row r="71" spans="2:13">
       <c r="B71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="3"/>
-      <c r="K71" s="4"/>
-    </row>
-    <row r="72" spans="2:11">
-      <c r="H72" s="4"/>
-      <c r="I72" s="3"/>
-      <c r="K72" s="4"/>
-    </row>
-    <row r="73" spans="2:11">
-      <c r="H73" s="4"/>
-      <c r="I73" s="2"/>
-      <c r="K73" s="4"/>
+      <c r="E71" s="2"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="3"/>
+      <c r="M71" s="4"/>
+    </row>
+    <row r="72" spans="2:13">
+      <c r="J72" s="4"/>
+      <c r="K72" s="3"/>
+      <c r="M72" s="4"/>
+    </row>
+    <row r="73" spans="2:13">
+      <c r="J73" s="4"/>
+      <c r="K73" s="2"/>
+      <c r="M73" s="4"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{CB89C7C3-9291-4D1D-ABF6-F72D75238F47}">
-      <selection activeCell="K7" sqref="K7"/>
+    <customSheetView guid="{086FD590-A994-4456-BE22-C66B2EE54603}" topLeftCell="A25">
+      <selection activeCell="F32" sqref="F32"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{03E8AAD4-4054-43A1-B504-82AC2A8AAC3D}" topLeftCell="A40">
-      <selection activeCell="I66" sqref="I66"/>
+    <customSheetView guid="{A139AFD5-47BE-4E02-BD03-EC36313C3819}">
+      <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -1155,19 +1185,19 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{A139AFD5-47BE-4E02-BD03-EC36313C3819}">
-      <selection activeCell="F21" sqref="F21"/>
+    <customSheetView guid="{03E8AAD4-4054-43A1-B504-82AC2A8AAC3D}" topLeftCell="A40">
+      <selection activeCell="I66" sqref="I66"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{086FD590-A994-4456-BE22-C66B2EE54603}" topLeftCell="A25">
-      <selection activeCell="F32" sqref="F32"/>
+    <customSheetView guid="{CB89C7C3-9291-4D1D-ABF6-F72D75238F47}">
+      <selection activeCell="K7" sqref="K7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="J1:N1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datas/Defines/__beans__.xlsx
+++ b/Datas/Defines/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeMonoConfigs\Defines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D20CE0-D06A-4852-9628-1F6BDB9E6F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF151E8-452D-41A8-A61F-42995D758325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="8100" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -94,57 +94,9 @@
     <t>注释</t>
   </si>
   <si>
-    <t>Build</t>
-  </si>
-  <si>
-    <t>Bld</t>
-  </si>
-  <si>
-    <t>Luck</t>
-  </si>
-  <si>
-    <t>Luk</t>
-  </si>
-  <si>
-    <t>Resistance</t>
-  </si>
-  <si>
-    <t>Res</t>
-  </si>
-  <si>
-    <t>Defence</t>
-  </si>
-  <si>
-    <t>Def</t>
-  </si>
-  <si>
     <t>Speed</t>
   </si>
   <si>
-    <t>Spd</t>
-  </si>
-  <si>
-    <t>Dexterity</t>
-  </si>
-  <si>
-    <t>Dex</t>
-  </si>
-  <si>
-    <t>Magic</t>
-  </si>
-  <si>
-    <t>Mag</t>
-  </si>
-  <si>
-    <t>Strength</t>
-  </si>
-  <si>
-    <t>Str</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
     <t>HPMax</t>
   </si>
   <si>
@@ -155,6 +107,54 @@
   </si>
   <si>
     <t>valueType</t>
+  </si>
+  <si>
+    <t>SPMax</t>
+  </si>
+  <si>
+    <t>Patk</t>
+  </si>
+  <si>
+    <t>Eatk</t>
+  </si>
+  <si>
+    <t>Pdef</t>
+  </si>
+  <si>
+    <t>Edef</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Evasion</t>
+  </si>
+  <si>
+    <t>物理攻击力</t>
+  </si>
+  <si>
+    <t>物理防御力</t>
+  </si>
+  <si>
+    <t>元素攻击力</t>
+  </si>
+  <si>
+    <t>元素防御力</t>
+  </si>
+  <si>
+    <t>准确率</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>暴击率</t>
+  </si>
+  <si>
+    <t>回避率</t>
   </si>
 </sst>
 </file>
@@ -553,8 +553,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -585,7 +585,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -656,7 +656,7 @@
     <row r="4" spans="1:19">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -665,14 +665,12 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="J4" s="6" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="5"/>
@@ -684,14 +682,12 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="J5" s="6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="5"/>
@@ -703,13 +699,13 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="J6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="K6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -722,13 +718,13 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="J7" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -741,13 +737,13 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="J8" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -760,13 +756,13 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="J9" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -779,13 +775,13 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="J10" s="6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -798,13 +794,13 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="J11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
         <v>21</v>
       </c>
-      <c r="K11" t="s">
-        <v>37</v>
-      </c>
       <c r="M11" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -817,13 +813,13 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="J12" s="6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -835,8 +831,15 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="J13" s="6"/>
-      <c r="M13" s="5"/>
+      <c r="J13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:19">
       <c r="J14" s="2"/>

--- a/Datas/Defines/__beans__.xlsx
+++ b/Datas/Defines/__beans__.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF151E8-452D-41A8-A61F-42995D758325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635A8B7B-380D-48D5-87DB-12406401B901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Claymore - Personal View" guid="{CB89C7C3-9291-4D1D-ABF6-F72D75238F47}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{03E8AAD4-4054-43A1-B504-82AC2A8AAC3D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{BEB32F08-F073-4C54-AB58-82CE415D5183}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{A139AFD5-47BE-4E02-BD03-EC36313C3819}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="李翔 - 个人视图" guid="{086FD590-A994-4456-BE22-C66B2EE54603}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="403" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{A139AFD5-47BE-4E02-BD03-EC36313C3819}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{BEB32F08-F073-4C54-AB58-82CE415D5183}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{03E8AAD4-4054-43A1-B504-82AC2A8AAC3D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Claymore - Personal View" guid="{CB89C7C3-9291-4D1D-ABF6-F72D75238F47}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>##var</t>
   </si>
@@ -94,67 +94,10 @@
     <t>注释</t>
   </si>
   <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>HPMax</t>
-  </si>
-  <si>
     <t>SLG.BasicStats</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>valueType</t>
-  </si>
-  <si>
-    <t>SPMax</t>
-  </si>
-  <si>
-    <t>Patk</t>
-  </si>
-  <si>
-    <t>Eatk</t>
-  </si>
-  <si>
-    <t>Pdef</t>
-  </si>
-  <si>
-    <t>Edef</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>Critical</t>
-  </si>
-  <si>
-    <t>Evasion</t>
-  </si>
-  <si>
-    <t>物理攻击力</t>
-  </si>
-  <si>
-    <t>物理防御力</t>
-  </si>
-  <si>
-    <t>元素攻击力</t>
-  </si>
-  <si>
-    <t>元素防御力</t>
-  </si>
-  <si>
-    <t>准确率</t>
-  </si>
-  <si>
-    <t>速度</t>
-  </si>
-  <si>
-    <t>暴击率</t>
-  </si>
-  <si>
-    <t>回避率</t>
   </si>
 </sst>
 </file>
@@ -554,7 +497,7 @@
   <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="D4" sqref="D4:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -585,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -656,7 +599,7 @@
     <row r="4" spans="1:19">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -664,12 +607,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="J4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
+      <c r="J4" s="6"/>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:19">
@@ -681,12 +619,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="J5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
+      <c r="J5" s="6"/>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:19">
@@ -698,15 +631,8 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="J6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="J6" s="6"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="5"/>
@@ -717,15 +643,8 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="J7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="J7" s="6"/>
+      <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="5"/>
@@ -736,15 +655,8 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="J8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="J8" s="6"/>
+      <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="5"/>
@@ -755,15 +667,8 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="J9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="J9" s="6"/>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="5"/>
@@ -774,15 +679,8 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="J10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="J10" s="6"/>
+      <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="5"/>
@@ -793,15 +691,8 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="J11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="J11" s="6"/>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="5"/>
@@ -812,15 +703,8 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="J12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="J12" s="6"/>
+      <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="5"/>
@@ -831,15 +715,8 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="J13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="J13" s="6"/>
+      <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:19">
       <c r="J14" s="2"/>
@@ -1173,13 +1050,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{086FD590-A994-4456-BE22-C66B2EE54603}" topLeftCell="A25">
-      <selection activeCell="F32" sqref="F32"/>
+    <customSheetView guid="{CB89C7C3-9291-4D1D-ABF6-F72D75238F47}">
+      <selection activeCell="K7" sqref="K7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{A139AFD5-47BE-4E02-BD03-EC36313C3819}">
-      <selection activeCell="F21" sqref="F21"/>
+    <customSheetView guid="{03E8AAD4-4054-43A1-B504-82AC2A8AAC3D}" topLeftCell="A40">
+      <selection activeCell="I66" sqref="I66"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -1188,13 +1065,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{03E8AAD4-4054-43A1-B504-82AC2A8AAC3D}" topLeftCell="A40">
-      <selection activeCell="I66" sqref="I66"/>
+    <customSheetView guid="{A139AFD5-47BE-4E02-BD03-EC36313C3819}">
+      <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{CB89C7C3-9291-4D1D-ABF6-F72D75238F47}">
-      <selection activeCell="K7" sqref="K7"/>
+    <customSheetView guid="{086FD590-A994-4456-BE22-C66B2EE54603}" topLeftCell="A25">
+      <selection activeCell="F32" sqref="F32"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
